--- a/DesignDocs/Design/발주 문서/빌드 통합 관리.xlsx
+++ b/DesignDocs/Design/발주 문서/빌드 통합 관리.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864702BD-4842-4607-B2FE-640D38D1BD82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5028D1D5-0E69-4664-ABCD-9D6E75674911}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>전투 - Abnormal 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 - 자연광 0.2로 고정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC - PC의 Sprite Pixel per Unit을 75로 수정 (다른 NPC도 조정)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 - 컬리젼 충돌 안되는 현상 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +640,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -842,15 +854,24 @@
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">

--- a/DesignDocs/Design/발주 문서/빌드 통합 관리.xlsx
+++ b/DesignDocs/Design/발주 문서/빌드 통합 관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5028D1D5-0E69-4664-ABCD-9D6E75674911}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5CA803-245A-48B0-BD5D-C031C1FD1767}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{434CAAA1-D6EA-4AF4-BB0C-824F397259BA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -242,6 +242,10 @@
   </si>
   <si>
     <t>레벨 - 컬리젼 충돌 안되는 현상 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC - 기본으로 제공하는 튜브 제공 및 제작</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -639,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FF190-EDCE-43C7-A5C3-EF5175D3AC25}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -878,6 +882,9 @@
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
